--- a/biology/Botanique/Laser_à_feuilles_larges/Laser_à_feuilles_larges.xlsx
+++ b/biology/Botanique/Laser_à_feuilles_larges/Laser_à_feuilles_larges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Laser_%C3%A0_feuilles_larges</t>
+          <t>Laser_à_feuilles_larges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Laserpitium latifolium
 Le Laser à feuilles larges (Laserpitium latifolium), également appelé Laser blanc, est une espèce de plantes herbacées vivaces du genre Laserpitium et de la famille des Apiacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Laser_%C3%A0_feuilles_larges</t>
+          <t>Laser_à_feuilles_larges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est glabre, haute de 60 cm à 150 cm. Elle présente des feuilles à folioles ovoïdes, en forme de cœur à la base, finement dentées, pétiolées, légèrement coriaces et vernissées. Les ombelles ont de 30 à 50 rayons. Les fleurs sont blanches et les fruits ailés.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laser_%C3%A0_feuilles_larges</t>
+          <t>Laser_à_feuilles_larges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Laser à feuilles larges est une plante qui se rencontre dans une grande partie de l'Europe, surtout en montagne (de 300 m à 2 000 m dans les Alpes), dans les bois clairs, les lieux secs et les rocailles. En France, il est présent dans tous les massifs montagneux ainsi que sur le plateau de Langres.
 </t>
